--- a/teaching/traditional_assets/database/data/papua_new_guinea/papua_new_guinea_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/papua_new_guinea/papua_new_guinea_metals_mining.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.019</v>
+        <v>-0.04849999999999999</v>
       </c>
       <c r="G2">
-        <v>-1.734567901234568</v>
+        <v>-1.972727272727272</v>
       </c>
       <c r="H2">
-        <v>-1.734567901234568</v>
+        <v>-1.972727272727272</v>
       </c>
       <c r="I2">
-        <v>-1.246913580246914</v>
+        <v>-2.218181818181818</v>
       </c>
       <c r="J2">
-        <v>-1.246913580246914</v>
+        <v>-2.218181818181818</v>
       </c>
       <c r="K2">
-        <v>-2.17</v>
+        <v>-2.64</v>
       </c>
       <c r="L2">
-        <v>-1.339506172839506</v>
+        <v>-2.4</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,67 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.216</v>
+        <v>1.41</v>
       </c>
       <c r="V2">
-        <v>0.002358078602620088</v>
+        <v>0.0157190635451505</v>
       </c>
       <c r="W2">
-        <v>-0.0640117994100295</v>
+        <v>-0.08627450980392157</v>
       </c>
       <c r="X2">
-        <v>0.1358805048188043</v>
+        <v>0.09283888990821114</v>
       </c>
       <c r="Y2">
-        <v>-0.1998923042288338</v>
+        <v>-0.1791133997121327</v>
       </c>
       <c r="Z2">
-        <v>0.04842036046268345</v>
+        <v>0.03566218187712758</v>
       </c>
       <c r="AA2">
-        <v>-0.06037600502137071</v>
+        <v>-0.07910520343653753</v>
       </c>
       <c r="AB2">
-        <v>0.1354945605650868</v>
+        <v>0.09269318667149577</v>
       </c>
       <c r="AC2">
-        <v>-0.1958705655864575</v>
+        <v>-0.1717983901080333</v>
       </c>
       <c r="AD2">
-        <v>0.461</v>
+        <v>0.347</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.461</v>
+        <v>0.347</v>
       </c>
       <c r="AG2">
-        <v>0.245</v>
+        <v>-1.063</v>
       </c>
       <c r="AH2">
-        <v>0.005007549342283921</v>
+        <v>0.003853543149688496</v>
       </c>
       <c r="AI2">
-        <v>0.01484176298251827</v>
+        <v>0.01322055854002362</v>
       </c>
       <c r="AJ2">
-        <v>0.002667537699384833</v>
+        <v>-0.01199273441113756</v>
       </c>
       <c r="AK2">
-        <v>0.007942940508996596</v>
+        <v>-0.04279904980472682</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="AN2">
-        <v>-0.2519125683060109</v>
+        <v>-0.151528384279476</v>
+      </c>
+      <c r="AO2">
+        <v>-55.45454545454545</v>
       </c>
       <c r="AP2">
-        <v>-0.133879781420765</v>
+        <v>0.4641921397379912</v>
+      </c>
+      <c r="AQ2">
+        <v>-55.45454545454545</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.019</v>
+        <v>-0.04849999999999999</v>
       </c>
       <c r="G3">
-        <v>-1.734567901234568</v>
+        <v>-1.972727272727272</v>
       </c>
       <c r="H3">
-        <v>-1.734567901234568</v>
+        <v>-1.972727272727272</v>
       </c>
       <c r="I3">
-        <v>-1.246913580246914</v>
+        <v>-2.218181818181818</v>
       </c>
       <c r="J3">
-        <v>-1.246913580246914</v>
+        <v>-2.218181818181818</v>
       </c>
       <c r="K3">
-        <v>-2.17</v>
+        <v>-2.64</v>
       </c>
       <c r="L3">
-        <v>-1.339506172839506</v>
+        <v>-2.4</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,67 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.216</v>
+        <v>1.41</v>
       </c>
       <c r="V3">
-        <v>0.002358078602620088</v>
+        <v>0.0157190635451505</v>
       </c>
       <c r="W3">
-        <v>-0.0640117994100295</v>
+        <v>-0.08627450980392157</v>
       </c>
       <c r="X3">
-        <v>0.1358805048188043</v>
+        <v>0.09283888990821114</v>
       </c>
       <c r="Y3">
-        <v>-0.1998923042288338</v>
+        <v>-0.1791133997121327</v>
       </c>
       <c r="Z3">
-        <v>0.04842036046268345</v>
+        <v>0.03566218187712758</v>
       </c>
       <c r="AA3">
-        <v>-0.06037600502137071</v>
+        <v>-0.07910520343653753</v>
       </c>
       <c r="AB3">
-        <v>0.1354945605650868</v>
+        <v>0.09269318667149577</v>
       </c>
       <c r="AC3">
-        <v>-0.1958705655864575</v>
+        <v>-0.1717983901080333</v>
       </c>
       <c r="AD3">
-        <v>0.461</v>
+        <v>0.347</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.461</v>
+        <v>0.347</v>
       </c>
       <c r="AG3">
-        <v>0.245</v>
+        <v>-1.063</v>
       </c>
       <c r="AH3">
-        <v>0.005007549342283921</v>
+        <v>0.003853543149688496</v>
       </c>
       <c r="AI3">
-        <v>0.01484176298251827</v>
+        <v>0.01322055854002362</v>
       </c>
       <c r="AJ3">
-        <v>0.002667537699384833</v>
+        <v>-0.01199273441113756</v>
       </c>
       <c r="AK3">
-        <v>0.007942940508996596</v>
+        <v>-0.04279904980472682</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="AN3">
-        <v>-0.2519125683060109</v>
+        <v>-0.151528384279476</v>
+      </c>
+      <c r="AO3">
+        <v>-55.45454545454545</v>
       </c>
       <c r="AP3">
-        <v>-0.133879781420765</v>
+        <v>0.4641921397379912</v>
+      </c>
+      <c r="AQ3">
+        <v>-55.45454545454545</v>
       </c>
     </row>
   </sheetData>
